--- a/Energy community potential model/results_monte_carlo_v2.xlsx
+++ b/Energy community potential model/results_monte_carlo_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91295075-E743-4BC6-8DE3-494CAF4AB4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB171CCC-C8AD-4B54-84E7-BD8BD08C6E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9885265-92F8-4143-8AA0-FF6432230651}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9885265-92F8-4143-8AA0-FF6432230651}"/>
   </bookViews>
   <sheets>
     <sheet name="assumptions" sheetId="1" r:id="rId1"/>
@@ -601,1059 +601,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>assumptions!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>high contagion</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>assumptions!$G$3:$G$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2053</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2055</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2058</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2059</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>assumptions!$I$3:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>5.7333333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.8666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.933333333333334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.033333333333335</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.133333333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.9</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27.433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28.533333333333335</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.733333333333334</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30.633333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31.666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.366666666666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>34.966666666666669</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>35.93333333333333</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>36.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37.366666666666667</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38.1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>38.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>39.166666666666664</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>39.866666666666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>40.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41.1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>41.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42.033333333333331</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42.93333333333333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43.133333333333333</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43.3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43.7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44.033333333333331</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44.533333333333331</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44.7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44.866666666666667</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45.06666666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45.266666666666666</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45.366666666666667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45.56666666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3CAB-4B8F-BCFC-CD3FCD8A4C04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>assumptions!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>high professionalization</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>assumptions!$G$3:$G$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2053</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2055</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2058</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2059</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>assumptions!$J$3:$J$52</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>5.9333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2333333333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.9666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.3666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.3666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.0333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.333333333333334</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.066666666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.266666666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.066666666666666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.866666666666667</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.633333333333333</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.633333333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16.733333333333334</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.466666666666665</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19.933333333333334</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.733333333333334</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21.433333333333334</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.533333333333335</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25.8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>26.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>27.866666666666667</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>28.933333333333334</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30.766666666666666</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>31.466666666666665</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>33.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>34.233333333333334</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>35.033333333333331</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>35.766666666666666</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>36.43333333333333</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>36.9</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>37.266666666666666</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>37.866666666666667</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>38.366666666666667</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>39.033333333333331</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39.733333333333334</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3CAB-4B8F-BCFC-CD3FCD8A4C04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>assumptions!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>combined</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>assumptions!$G$3:$G$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2053</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2055</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2058</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2059</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>assumptions!$K$3:$K$52</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2666666666666675</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.366666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.533333333333335</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.133333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.466666666666665</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.533333333333335</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28.366666666666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31.566666666666666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33.06666666666667</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34.266666666666666</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>35.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>36.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37.166666666666664</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.366666666666667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>39.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40.266666666666666</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42.966666666666669</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43.533333333333331</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43.966666666666669</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44.4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44.966666666666669</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45.233333333333334</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45.766666666666666</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>46.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>46.266666666666666</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>46.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>46.7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>46.866666666666667</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47.133333333333333</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>47.2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>47.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47.466666666666669</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47.633333333333333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47.766666666666666</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>47.866666666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3CAB-4B8F-BCFC-CD3FCD8A4C04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1665,6 +612,1123 @@
         <c:smooth val="0"/>
         <c:axId val="532065584"/>
         <c:axId val="532064144"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>high contagion</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$G$3:$G$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2026</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2027</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2029</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2031</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2032</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2033</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2034</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2035</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2036</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2037</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2038</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2039</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2040</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2041</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2042</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2043</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2044</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2045</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2046</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2047</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2049</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2050</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2051</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2052</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2053</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2054</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2055</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2056</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2057</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2058</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2059</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$I$3:$I$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>5.7333333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5333333333333332</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.8666666666666671</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12.1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>13.433333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15.3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>16.933333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>19.033333333333335</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>21.433333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>23.133333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>24.333333333333332</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>25.9</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>27.433333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>28.533333333333335</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>29.733333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>30.633333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>31.666666666666668</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>32.333333333333336</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>33.366666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>34.200000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>34.966666666666669</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>35.93333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>36.6</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>37.366666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>38.1</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>38.799999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>39.166666666666664</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>39.866666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>40.299999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>40.700000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>41.1</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>41.7</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>42.033333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>42.3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>42.6</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>42.93333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43.133333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43.3</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>43.7</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>44.033333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>44.3</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44.533333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44.7</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>44.866666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>45.06666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>45.266666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>45.366666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>45.56666666666667</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3CAB-4B8F-BCFC-CD3FCD8A4C04}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$J$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>high professionalization</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$G$3:$G$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2026</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2027</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2029</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2031</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2032</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2033</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2034</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2035</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2036</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2037</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2038</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2039</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2040</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2041</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2042</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2043</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2044</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2045</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2046</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2047</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2049</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2050</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2051</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2052</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2053</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2054</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2055</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2056</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2057</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2058</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2059</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$J$3:$J$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>5.9333333333333336</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.0666666666666664</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.2333333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.4333333333333336</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.9666666666666668</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.3666666666666663</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.7</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.3666666666666671</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9.0333333333333332</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9.8000000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>10.333333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>11.066666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>11.666666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>12.266666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>13.066666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>13.866666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>14.633333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>15.633333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>16.733333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>17.466666666666665</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>18.8</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>19.933333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>20.733333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>21.433333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>22.5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>23.5</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>24.533333333333335</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>25.8</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>26.8</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>27.866666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>28.933333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>30.766666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>31.466666666666665</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>32.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>33.333333333333336</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>34.233333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>35.033333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>35.766666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>36.43333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>36.9</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>37.266666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>37.866666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>38.366666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>39.033333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>39.733333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>40.1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3CAB-4B8F-BCFC-CD3FCD8A4C04}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>combined</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$G$3:$G$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2026</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2027</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2029</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2031</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2032</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2033</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2034</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2035</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2036</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2037</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2038</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2039</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2040</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2041</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2042</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2043</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2044</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2045</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2046</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2047</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2049</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2050</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2051</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2052</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2053</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2054</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2055</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2056</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2057</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2058</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2059</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$K$3:$K$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>5.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.9666666666666668</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.2666666666666675</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10.833333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12.366666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14.3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>16.533333333333335</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>18.133333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>20.100000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>21.466666666666665</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>23.6</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>25.533333333333335</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>27.1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>28.366666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>30.3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>31.566666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>33.06666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>34.266666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>35.299999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>36.4</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>37.166666666666664</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>38.366666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>39.333333333333336</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>40.266666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>41.2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>41.8</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>42.3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>42.966666666666669</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>43.533333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43.966666666666669</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>44.4</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>44.966666666666669</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>45.233333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>45.4</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>45.766666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>46.1</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>46.266666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>46.5</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>46.7</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>46.866666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>47.133333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>47.2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>47.333333333333336</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>47.466666666666669</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47.633333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47.666666666666664</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>47.766666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>47.866666666666667</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-3CAB-4B8F-BCFC-CD3FCD8A4C04}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:dateAx>
         <c:axId val="532065584"/>
@@ -1722,6 +1786,7 @@
         <c:axId val="532064144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4000,1059 +4065,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>assumptions!$S$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>high contagion</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>assumptions!$G$3:$G$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2053</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2055</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2058</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2059</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>assumptions!$S$3:$S$52</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2.4096345734487541E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1946738914954077E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1541663913302052E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2772087490913899E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4874776977466454E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.8394898566047696E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.2024053393246538E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0761580651556201E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2342562611511267E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4130707724839755E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5951562809753517E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7750611246943764E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.9680499570475119E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.1697614484900544E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.3878279257252364E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5884490847816032E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.8174188858785438E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.043117689816956E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2840811471618318E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.5348575959822902E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.7845437124165736E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.0560364765743741E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.3275292407321753E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.605563999207031E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.8857794224542395E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.1703561752461512E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.4625652547412938E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.7351483512852706E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.0371704222559962E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.3206568426617316E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.6226789136324585E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.932333311306417E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.2343553822771425E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.5418291151787484E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.8602061719421135E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.1600475781404877E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.463159981497391E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.7499173990616533E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.0835591092314802E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.4259234784907164E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.7628361858190696E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.10106290887464481</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.10442113262406662</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.1080955527654794</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.11172635961144518</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.11533535980968744</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.11915152316130312</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.12314213969470693</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.12716546619969604</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.13129782594330272</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EA25-4F51-BD4F-C79B19BF3FCC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>assumptions!$T$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>high professionalization</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>assumptions!$G$3:$G$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2053</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2055</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2058</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2059</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>assumptions!$T$3:$T$52</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2.2351813916606095E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6277010506839354E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0202207097072618E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4236436925923481E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8924866186479884E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4158461640124227E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9610123571003769E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5606951694971256E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1385713341703561E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.272517015793299E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.3410427542456884E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.5622150267627038E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0728870679970923E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1884623009317388E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3094891957972641E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.429425758276614E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5526333179144914E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6943765281173594E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8404810678649308E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9985792638604376E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1425031388356573E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.3158659882376264E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.4815965109363639E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.644056036476574E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.8108768915614882E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.9896914028943369E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.1728672437718895E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.3505914227185622E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.5490319170025771E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.7431110817418886E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.9546355646600147E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.1596180532610848E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.3853168571994977E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.5793960219388093E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.8040044934910466E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.0264323002709305E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.2532214365955197E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.4854622348509879E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.7318773541267423E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.9968281239674882E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.2530562347188262E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.5125553426286911E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.7720544505385574E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.0664441948060527E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.3553822771426677E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.658494680499571E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.9616070838564729E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.2908874644815972E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8.6049031917002569E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8.9396352342562616E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EA25-4F51-BD4F-C79B19BF3FCC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>assumptions!$U$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>combined</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>assumptions!$G$3:$G$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2053</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2055</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2058</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2059</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>assumptions!$U$3:$U$52</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>2.2024714200753323E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9657040903984669E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8815832947862285E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0155289764091723E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2148946012026696E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.5669067600607938E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.9952421859512324E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0630740765215092E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.229894931606423E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4555937355448358E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6921958633450078E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.9429723121654661E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2177360734817946E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.5197581444525212E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8370448688297099E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.1804995704751204E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.5501222493887527E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.9677195532941252E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.4103945020815445E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.8694244366616006E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.3491706865789995E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.8430912575166853E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.3915284477631673E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.9661336152778697E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.5429194475649233E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.1687702372298943E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.7858983678054586E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.4030264983810202E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.10067038921562148</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.10720148020881518</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.11381979779290292</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.12049263199629949</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.12702372298949316</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.13358752395427212</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.13994416176567767</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.14624628295777439</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.15233033767263596</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.15841439238749755</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.16425857397740037</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.17007004559571795</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.17571796735610917</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.18135498579263859</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.18673032445648582</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.19181127337606554</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.19693583559109235</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.2017660080618516</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.20637811405537565</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.21092480010572923</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.21526432300270931</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.21954932928038062</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EA25-4F51-BD4F-C79B19BF3FCC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5064,6 +4076,1123 @@
         <c:smooth val="0"/>
         <c:axId val="536376048"/>
         <c:axId val="2018236544"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$S$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>high contagion</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$G$3:$G$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2026</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2027</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2029</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2031</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2032</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2033</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2034</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2035</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2036</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2037</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2038</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2039</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2040</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2041</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2042</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2043</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2044</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2045</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2046</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2047</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2049</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2050</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2051</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2052</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2053</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2054</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2055</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2056</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2057</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2058</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2059</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$S$3:$S$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>2.4096345734487541E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.1946738914954077E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.1541663913302052E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.2772087490913899E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.4874776977466454E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.8394898566047696E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9.2024053393246538E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.0761580651556201E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.2342562611511267E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.4130707724839755E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.5951562809753517E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.7750611246943764E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.9680499570475119E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.1697614484900544E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.3878279257252364E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.5884490847816032E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.8174188858785438E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.043117689816956E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2840811471618318E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.5348575959822902E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.7845437124165736E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4.0560364765743741E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>4.3275292407321753E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.605563999207031E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.8857794224542395E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>5.1703561752461512E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>5.4625652547412938E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>5.7351483512852706E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>6.0371704222559962E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>6.3206568426617316E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>6.6226789136324585E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>6.932333311306417E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>7.2343553822771425E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>7.5418291151787484E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>7.8602061719421135E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>8.1600475781404877E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>8.463159981497391E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>8.7499173990616533E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>9.0835591092314802E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>9.4259234784907164E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>9.7628361858190696E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.10106290887464481</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.10442113262406662</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.1080955527654794</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.11172635961144518</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.11533535980968744</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.11915152316130312</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.12314213969470693</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.12716546619969604</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.13129782594330272</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-EA25-4F51-BD4F-C79B19BF3FCC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$T$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>high professionalization</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$G$3:$G$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2026</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2027</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2029</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2031</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2032</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2033</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2034</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2035</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2036</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2037</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2038</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2039</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2040</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2041</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2042</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2043</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2044</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2045</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2046</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2047</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2049</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2050</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2051</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2052</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2053</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2054</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2055</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2056</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2057</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2058</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2059</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$T$3:$T$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>2.2351813916606095E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.6277010506839354E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.0202207097072618E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.4236436925923481E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.8924866186479884E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.4158461640124227E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.9610123571003769E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.5606951694971256E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.1385713341703561E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.272517015793299E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.3410427542456884E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9.5622150267627038E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.0728870679970923E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.1884623009317388E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.3094891957972641E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.429425758276614E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.5526333179144914E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.6943765281173594E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.8404810678649308E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.9985792638604376E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2.1425031388356573E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2.3158659882376264E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.4815965109363639E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.644056036476574E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.8108768915614882E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2.9896914028943369E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>3.1728672437718895E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>3.3505914227185622E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3.5490319170025771E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3.7431110817418886E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3.9546355646600147E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4.1596180532610848E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4.3853168571994977E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4.5793960219388093E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4.8040044934910466E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>5.0264323002709305E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>5.2532214365955197E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>5.4854622348509879E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>5.7318773541267423E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>5.9968281239674882E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>6.2530562347188262E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>6.5125553426286911E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>6.7720544505385574E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>7.0664441948060527E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>7.3553822771426677E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>7.658494680499571E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>7.9616070838564729E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>8.2908874644815972E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>8.6049031917002569E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>8.9396352342562616E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-EA25-4F51-BD4F-C79B19BF3FCC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$U$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>combined</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$G$3:$G$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2023</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2024</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2026</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2027</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2028</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2029</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2030</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2031</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2032</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2033</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2034</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2035</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2036</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2037</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2038</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2039</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2040</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2041</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2042</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2043</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2044</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2045</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2046</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2047</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2049</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2050</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2051</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2052</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2053</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2054</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2055</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2056</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2057</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2058</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2059</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>assumptions!$U$3:$U$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>2.2024714200753323E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.9657040903984669E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.8815832947862285E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.0155289764091723E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.2148946012026696E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.5669067600607938E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.9952421859512324E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.0630740765215092E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.229894931606423E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.4555937355448358E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.6921958633450078E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.9429723121654661E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2177360734817946E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.5197581444525212E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.8370448688297099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.1804995704751204E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3.5501222493887527E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.9677195532941252E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4.4103945020815445E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4.8694244366616006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5.3491706865789995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5.8430912575166853E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>6.3915284477631673E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>6.9661336152778697E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>7.5429194475649233E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8.1687702372298943E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>8.7858983678054586E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>9.4030264983810202E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.10067038921562148</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.10720148020881518</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.11381979779290292</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.12049263199629949</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.12702372298949316</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.13358752395427212</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.13994416176567767</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.14624628295777439</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.15233033767263596</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.15841439238749755</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.16425857397740037</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.17007004559571795</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.17571796735610917</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.18135498579263859</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.18673032445648582</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.19181127337606554</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.19693583559109235</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.2017660080618516</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.20637811405537565</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.21092480010572923</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.21526432300270931</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.21954932928038062</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-EA25-4F51-BD4F-C79B19BF3FCC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:dateAx>
         <c:axId val="536376048"/>
@@ -5121,6 +5250,7 @@
         <c:axId val="2018236544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6928,16 +7058,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7000,16 +7130,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7356,17 +7486,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F6BD1D-5016-40E1-B0B7-0D0C4F0664E0}">
   <dimension ref="A1:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G2" activeCellId="1" sqref="R2:U52 G2:G52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -7401,7 +7531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7496,7 +7626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7623,7 +7753,7 @@
         <v>3.2905453917117313</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -7750,7 +7880,7 @@
         <v>4.6291992547084941</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -7877,7 +8007,7 @@
         <v>6.3501250599705141</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8004,7 +8134,7 @@
         <v>8.0847505716818109</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8137,7 +8267,7 @@
         <v>10.010086185280818</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>2015</v>
       </c>
@@ -8255,7 +8385,7 @@
         <v>12.0160674083846</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>2016</v>
       </c>
@@ -8373,7 +8503,7 @@
         <v>14.349860850872899</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>2017</v>
       </c>
@@ -8491,7 +8621,7 @@
         <v>16.632960385342287</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>2018</v>
       </c>
@@ -8609,7 +8739,7 @@
         <v>18.735128923785503</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>2019</v>
       </c>
@@ -8727,7 +8857,7 @@
         <v>21.502389182245754</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>2020</v>
       </c>
@@ -8845,7 +8975,7 @@
         <v>24.459314225675367</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>2021</v>
       </c>
@@ -8963,7 +9093,7 @@
         <v>27.527907526411362</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>2022</v>
       </c>
@@ -9081,7 +9211,7 @@
         <v>30.862185658517237</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>2023</v>
       </c>
@@ -9199,7 +9329,7 @@
         <v>34.507688951485257</v>
       </c>
     </row>
-    <row r="17" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>2024</v>
       </c>
@@ -9317,7 +9447,7 @@
         <v>38.40291484952175</v>
       </c>
     </row>
-    <row r="18" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>2025</v>
       </c>
@@ -9435,7 +9565,7 @@
         <v>42.358154007494214</v>
       </c>
     </row>
-    <row r="19" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>2026</v>
       </c>
@@ -9553,7 +9683,7 @@
         <v>46.439545154817097</v>
       </c>
     </row>
-    <row r="20" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>2027</v>
       </c>
@@ -9671,7 +9801,7 @@
         <v>50.745482072150629</v>
       </c>
     </row>
-    <row r="21" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>2028</v>
       </c>
@@ -9789,7 +9919,7 @@
         <v>55.445857041128967</v>
       </c>
     </row>
-    <row r="22" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>2029</v>
       </c>
@@ -9907,7 +10037,7 @@
         <v>60.232823880199554</v>
       </c>
     </row>
-    <row r="23" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>2030</v>
       </c>
@@ -10025,7 +10155,7 @@
         <v>65.176662430385647</v>
       </c>
     </row>
-    <row r="24" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>2031</v>
       </c>
@@ -10143,7 +10273,7 @@
         <v>69.994223305418203</v>
       </c>
     </row>
-    <row r="25" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>2032</v>
       </c>
@@ -10261,7 +10391,7 @@
         <v>74.724387315593319</v>
       </c>
     </row>
-    <row r="26" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>2033</v>
       </c>
@@ -10379,7 +10509,7 @@
         <v>79.880053576173964</v>
       </c>
     </row>
-    <row r="27" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>2034</v>
       </c>
@@ -10497,7 +10627,7 @@
         <v>84.717222026796193</v>
       </c>
     </row>
-    <row r="28" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>2035</v>
       </c>
@@ -10615,7 +10745,7 @@
         <v>89.805522679481086</v>
       </c>
     </row>
-    <row r="29" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>2036</v>
       </c>
@@ -10733,7 +10863,7 @@
         <v>94.516640474093435</v>
       </c>
     </row>
-    <row r="30" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>2037</v>
       </c>
@@ -10851,7 +10981,7 @@
         <v>99.051317761115797</v>
       </c>
     </row>
-    <row r="31" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>2038</v>
       </c>
@@ -10969,7 +11099,7 @@
         <v>103.58600652956292</v>
       </c>
     </row>
-    <row r="32" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>2039</v>
       </c>
@@ -11087,7 +11217,7 @@
         <v>108.06257410095247</v>
       </c>
     </row>
-    <row r="33" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>2040</v>
       </c>
@@ -11205,7 +11335,7 @@
         <v>112.09148026431872</v>
       </c>
     </row>
-    <row r="34" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>2041</v>
       </c>
@@ -11323,7 +11453,7 @@
         <v>116.0020822196019</v>
       </c>
     </row>
-    <row r="35" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>2042</v>
       </c>
@@ -11441,7 +11571,7 @@
         <v>119.55943731524505</v>
       </c>
     </row>
-    <row r="36" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>2043</v>
       </c>
@@ -11559,7 +11689,7 @@
         <v>122.54041940515928</v>
       </c>
     </row>
-    <row r="37" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>2044</v>
       </c>
@@ -11677,7 +11807,7 @@
         <v>125.34753283643444</v>
       </c>
     </row>
-    <row r="38" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>2045</v>
       </c>
@@ -11795,7 +11925,7 @@
         <v>127.67527563201217</v>
       </c>
     </row>
-    <row r="39" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>2046</v>
       </c>
@@ -11913,7 +12043,7 @@
         <v>129.72044756068598</v>
       </c>
     </row>
-    <row r="40" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>2047</v>
       </c>
@@ -12031,7 +12161,7 @@
         <v>131.56878014808007</v>
       </c>
     </row>
-    <row r="41" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>2048</v>
       </c>
@@ -12149,7 +12279,7 @@
         <v>133.10771887806197</v>
       </c>
     </row>
-    <row r="42" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>2049</v>
       </c>
@@ -12267,7 +12397,7 @@
         <v>134.62555896448831</v>
       </c>
     </row>
-    <row r="43" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>2050</v>
       </c>
@@ -12385,7 +12515,7 @@
         <v>135.99596528320674</v>
       </c>
     </row>
-    <row r="44" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>2051</v>
       </c>
@@ -12503,7 +12633,7 @@
         <v>137.22559515181166</v>
       </c>
     </row>
-    <row r="45" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>2052</v>
       </c>
@@ -12621,7 +12751,7 @@
         <v>138.26054414655286</v>
       </c>
     </row>
-    <row r="46" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>2053</v>
       </c>
@@ -12739,7 +12869,7 @@
         <v>139.47663305598491</v>
       </c>
     </row>
-    <row r="47" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>2054</v>
       </c>
@@ -12857,7 +12987,7 @@
         <v>140.50036401017923</v>
       </c>
     </row>
-    <row r="48" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>2055</v>
       </c>
@@ -12975,7 +13105,7 @@
         <v>141.53870681514746</v>
       </c>
     </row>
-    <row r="49" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>2056</v>
       </c>
@@ -13093,7 +13223,7 @@
         <v>142.44010329931666</v>
       </c>
     </row>
-    <row r="50" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>2057</v>
       </c>
@@ -13211,7 +13341,7 @@
         <v>143.12720735230778</v>
       </c>
     </row>
-    <row r="51" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>2058</v>
       </c>
@@ -13329,7 +13459,7 @@
         <v>143.90913404309936</v>
       </c>
     </row>
-    <row r="52" spans="7:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:41" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>2059</v>
       </c>
@@ -13461,14 +13591,14 @@
       <selection activeCell="B2" sqref="B2:AE51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -13563,7 +13693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -13658,7 +13788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -13753,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -13848,7 +13978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -13943,7 +14073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -14038,7 +14168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -14133,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -14228,7 +14358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -14323,7 +14453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -14418,7 +14548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -14513,7 +14643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -14608,7 +14738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -14703,7 +14833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -14798,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -14893,7 +15023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -14988,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -15083,7 +15213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -15178,7 +15308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -15273,7 +15403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -15368,7 +15498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -15463,7 +15593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -15558,7 +15688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -15653,7 +15783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -15748,7 +15878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -15843,7 +15973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -15938,7 +16068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -16033,7 +16163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -16128,7 +16258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -16223,7 +16353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -16318,7 +16448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -16413,7 +16543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -16508,7 +16638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -16603,7 +16733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -16698,7 +16828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -16793,7 +16923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -16888,7 +17018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -16983,7 +17113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -17078,7 +17208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -17173,7 +17303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -17268,7 +17398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -17363,7 +17493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -17458,7 +17588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -17553,7 +17683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -17648,7 +17778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -17743,7 +17873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -17838,7 +17968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -17933,7 +18063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -18028,7 +18158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -18123,7 +18253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -18231,14 +18361,14 @@
       <selection activeCell="B2" sqref="B2:AE51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -18333,7 +18463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -18428,7 +18558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -18523,7 +18653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -18618,7 +18748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -18713,7 +18843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -18808,7 +18938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -18903,7 +19033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -18998,7 +19128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -19093,7 +19223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -19188,7 +19318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -19283,7 +19413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -19378,7 +19508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -19473,7 +19603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -19568,7 +19698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -19663,7 +19793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -19758,7 +19888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -19853,7 +19983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -19948,7 +20078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -20043,7 +20173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -20138,7 +20268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -20233,7 +20363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -20328,7 +20458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -20423,7 +20553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -20518,7 +20648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -20613,7 +20743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -20708,7 +20838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -20803,7 +20933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -20898,7 +21028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -20993,7 +21123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -21088,7 +21218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -21183,7 +21313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -21278,7 +21408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -21373,7 +21503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -21468,7 +21598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -21563,7 +21693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -21658,7 +21788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -21753,7 +21883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -21848,7 +21978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -21943,7 +22073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -22038,7 +22168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -22133,7 +22263,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -22228,7 +22358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -22323,7 +22453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -22418,7 +22548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -22513,7 +22643,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -22608,7 +22738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -22703,7 +22833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -22798,7 +22928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -22893,7 +23023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -23001,14 +23131,14 @@
       <selection activeCell="B2" sqref="B2:AE51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -23103,7 +23233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -23198,7 +23328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -23293,7 +23423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -23388,7 +23518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -23483,7 +23613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -23578,7 +23708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -23673,7 +23803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -23768,7 +23898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -23863,7 +23993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -23958,7 +24088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -24053,7 +24183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -24148,7 +24278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -24243,7 +24373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -24338,7 +24468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -24433,7 +24563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -24528,7 +24658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -24623,7 +24753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -24718,7 +24848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -24813,7 +24943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -24908,7 +25038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -25003,7 +25133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -25098,7 +25228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -25193,7 +25323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -25288,7 +25418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -25383,7 +25513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -25478,7 +25608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -25573,7 +25703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -25668,7 +25798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -25763,7 +25893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -25858,7 +25988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -25953,7 +26083,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -26048,7 +26178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -26143,7 +26273,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -26238,7 +26368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -26333,7 +26463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -26428,7 +26558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -26523,7 +26653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -26618,7 +26748,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -26713,7 +26843,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -26808,7 +26938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -26903,7 +27033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -26998,7 +27128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -27093,7 +27223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -27188,7 +27318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -27283,7 +27413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -27378,7 +27508,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -27473,7 +27603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -27568,7 +27698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -27663,7 +27793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -27771,14 +27901,14 @@
       <selection activeCell="B2" sqref="B2:AE51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -27873,7 +28003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -27968,7 +28098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -28063,7 +28193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -28158,7 +28288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -28253,7 +28383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -28348,7 +28478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -28443,7 +28573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -28538,7 +28668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -28633,7 +28763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -28728,7 +28858,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -28823,7 +28953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -28918,7 +29048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -29013,7 +29143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -29108,7 +29238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -29203,7 +29333,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -29298,7 +29428,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -29393,7 +29523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -29488,7 +29618,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -29583,7 +29713,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -29678,7 +29808,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -29773,7 +29903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -29868,7 +29998,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -29963,7 +30093,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -30058,7 +30188,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -30153,7 +30283,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -30248,7 +30378,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -30343,7 +30473,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -30438,7 +30568,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -30533,7 +30663,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -30628,7 +30758,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -30723,7 +30853,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -30818,7 +30948,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -30913,7 +31043,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -31008,7 +31138,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -31103,7 +31233,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -31198,7 +31328,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -31293,7 +31423,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -31388,7 +31518,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -31483,7 +31613,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -31578,7 +31708,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -31673,7 +31803,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -31768,7 +31898,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -31863,7 +31993,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -31958,7 +32088,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -32053,7 +32183,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -32148,7 +32278,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -32243,7 +32373,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -32338,7 +32468,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -32433,7 +32563,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -32541,14 +32671,14 @@
       <selection activeCell="B2" sqref="B2:AE51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -32643,7 +32773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -32738,7 +32868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -32833,7 +32963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -32928,7 +33058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -33023,7 +33153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -33118,7 +33248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -33213,7 +33343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -33308,7 +33438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -33403,7 +33533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -33498,7 +33628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -33593,7 +33723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -33688,7 +33818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -33783,7 +33913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -33878,7 +34008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -33973,7 +34103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -34068,7 +34198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -34163,7 +34293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -34258,7 +34388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -34353,7 +34483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -34448,7 +34578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -34543,7 +34673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -34638,7 +34768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -34733,7 +34863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -34828,7 +34958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -34923,7 +35053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -35018,7 +35148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -35113,7 +35243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -35208,7 +35338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -35303,7 +35433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -35398,7 +35528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -35493,7 +35623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -35588,7 +35718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -35683,7 +35813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -35778,7 +35908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -35873,7 +36003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -35968,7 +36098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -36063,7 +36193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -36158,7 +36288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -36253,7 +36383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -36348,7 +36478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -36443,7 +36573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -36538,7 +36668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -36633,7 +36763,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -36728,7 +36858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -36823,7 +36953,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -36918,7 +37048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -37013,7 +37143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -37108,7 +37238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -37203,7 +37333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -37311,14 +37441,14 @@
       <selection activeCell="B2" sqref="B2:AE51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -37413,7 +37543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -37508,7 +37638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -37603,7 +37733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -37698,7 +37828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -37793,7 +37923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -37888,7 +38018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -37983,7 +38113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -38078,7 +38208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -38173,7 +38303,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -38268,7 +38398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -38363,7 +38493,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -38458,7 +38588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -38553,7 +38683,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -38648,7 +38778,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -38743,7 +38873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -38838,7 +38968,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -38933,7 +39063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -39028,7 +39158,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -39123,7 +39253,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -39218,7 +39348,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -39313,7 +39443,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -39408,7 +39538,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -39503,7 +39633,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -39598,7 +39728,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -39693,7 +39823,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -39788,7 +39918,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -39883,7 +40013,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -39978,7 +40108,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -40073,7 +40203,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -40168,7 +40298,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -40263,7 +40393,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -40358,7 +40488,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -40453,7 +40583,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -40548,7 +40678,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -40643,7 +40773,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -40738,7 +40868,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -40833,7 +40963,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -40928,7 +41058,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -41023,7 +41153,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -41118,7 +41248,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -41213,7 +41343,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -41308,7 +41438,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -41403,7 +41533,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -41498,7 +41628,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -41593,7 +41723,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -41688,7 +41818,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -41783,7 +41913,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -41878,7 +42008,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -41973,7 +42103,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -42081,14 +42211,14 @@
       <selection activeCell="B2" sqref="B2:AE51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -42183,7 +42313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -42278,7 +42408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -42373,7 +42503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -42468,7 +42598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -42563,7 +42693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -42658,7 +42788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -42753,7 +42883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -42848,7 +42978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -42943,7 +43073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -43038,7 +43168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -43133,7 +43263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -43228,7 +43358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -43323,7 +43453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -43418,7 +43548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -43513,7 +43643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -43608,7 +43738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -43703,7 +43833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -43798,7 +43928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -43893,7 +44023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -43988,7 +44118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -44083,7 +44213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -44178,7 +44308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -44273,7 +44403,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -44368,7 +44498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -44463,7 +44593,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -44558,7 +44688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -44653,7 +44783,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -44748,7 +44878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -44843,7 +44973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -44938,7 +45068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -45033,7 +45163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -45128,7 +45258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -45223,7 +45353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -45318,7 +45448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -45413,7 +45543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -45508,7 +45638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -45603,7 +45733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -45698,7 +45828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -45793,7 +45923,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -45888,7 +46018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -45983,7 +46113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -46078,7 +46208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -46173,7 +46303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -46268,7 +46398,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -46363,7 +46493,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -46458,7 +46588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -46553,7 +46683,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -46648,7 +46778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -46743,7 +46873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2059</v>
       </c>
@@ -46851,14 +46981,14 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -46953,7 +47083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -47048,7 +47178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -47143,7 +47273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -47238,7 +47368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -47333,7 +47463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -47428,7 +47558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -47523,7 +47653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -47618,7 +47748,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -47713,7 +47843,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -47808,7 +47938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -47903,7 +48033,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -47998,7 +48128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -48093,7 +48223,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -48188,7 +48318,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -48283,7 +48413,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -48378,7 +48508,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -48473,7 +48603,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -48568,7 +48698,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -48663,7 +48793,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -48758,7 +48888,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -48853,7 +48983,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -48948,7 +49078,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -49043,7 +49173,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -49138,7 +49268,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -49233,7 +49363,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -49328,7 +49458,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -49423,7 +49553,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -49518,7 +49648,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -49613,7 +49743,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -49708,7 +49838,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -49803,7 +49933,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -49898,7 +50028,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -49993,7 +50123,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -50088,7 +50218,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -50183,7 +50313,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -50278,7 +50408,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -50373,7 +50503,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -50468,7 +50598,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -50563,7 +50693,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -50658,7 +50788,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -50753,7 +50883,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2051</v>
       </c>
@@ -50848,7 +50978,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2052</v>
       </c>
@@ -50943,7 +51073,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2053</v>
       </c>
@@ -51038,7 +51168,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2054</v>
       </c>
@@ -51133,7 +51263,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2055</v>
       </c>
@@ -51228,7 +51358,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2056</v>
       </c>
@@ -51323,7 +51453,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2057</v>
       </c>
@@ -51418,7 +51548,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2058</v>
       </c>
@@ -51513,7 +51643,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2059</v>
       </c>

--- a/Energy community potential model/results_monte_carlo_v2.xlsx
+++ b/Energy community potential model/results_monte_carlo_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Energy-community-potential-model\Energy community potential model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB171CCC-C8AD-4B54-84E7-BD8BD08C6E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D83BBD-23DF-4390-92C1-E3AE3569760B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9885265-92F8-4143-8AA0-FF6432230651}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{C9885265-92F8-4143-8AA0-FF6432230651}"/>
   </bookViews>
   <sheets>
     <sheet name="assumptions" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="52">
   <si>
     <t>year</t>
   </si>
@@ -111,12 +111,102 @@
   <si>
     <t>Projects confidence</t>
   </si>
+  <si>
+    <t>run1</t>
+  </si>
+  <si>
+    <t>run2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run3 </t>
+  </si>
+  <si>
+    <t>run4</t>
+  </si>
+  <si>
+    <t>run5</t>
+  </si>
+  <si>
+    <t>run6</t>
+  </si>
+  <si>
+    <t>run7</t>
+  </si>
+  <si>
+    <t>run8</t>
+  </si>
+  <si>
+    <t>run9</t>
+  </si>
+  <si>
+    <t>run10</t>
+  </si>
+  <si>
+    <t>run11</t>
+  </si>
+  <si>
+    <t>run12</t>
+  </si>
+  <si>
+    <t>run13</t>
+  </si>
+  <si>
+    <t>run14</t>
+  </si>
+  <si>
+    <t>run15</t>
+  </si>
+  <si>
+    <t>run16</t>
+  </si>
+  <si>
+    <t>run17</t>
+  </si>
+  <si>
+    <t>run18</t>
+  </si>
+  <si>
+    <t>run19</t>
+  </si>
+  <si>
+    <t>run20</t>
+  </si>
+  <si>
+    <t>run21</t>
+  </si>
+  <si>
+    <t>run22</t>
+  </si>
+  <si>
+    <t>run23</t>
+  </si>
+  <si>
+    <t>run24</t>
+  </si>
+  <si>
+    <t>run25</t>
+  </si>
+  <si>
+    <t>run26</t>
+  </si>
+  <si>
+    <t>run27</t>
+  </si>
+  <si>
+    <t>run28</t>
+  </si>
+  <si>
+    <t>run29</t>
+  </si>
+  <si>
+    <t>run30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +217,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -991,7 +1087,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$J$2</c15:sqref>
@@ -1020,7 +1116,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$G$3:$G$52</c15:sqref>
@@ -1185,7 +1281,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$J$3:$J$52</c15:sqref>
@@ -1349,7 +1445,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-3CAB-4B8F-BCFC-CD3FCD8A4C04}"/>
                   </c:ext>
@@ -1362,7 +1458,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$K$2</c15:sqref>
@@ -1391,7 +1487,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$G$3:$G$52</c15:sqref>
@@ -1556,7 +1652,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$K$3:$K$52</c15:sqref>
@@ -1720,7 +1816,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-3CAB-4B8F-BCFC-CD3FCD8A4C04}"/>
                   </c:ext>
@@ -4455,7 +4551,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$T$2</c15:sqref>
@@ -4484,7 +4580,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$G$3:$G$52</c15:sqref>
@@ -4649,7 +4745,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$T$3:$T$52</c15:sqref>
@@ -4813,7 +4909,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-EA25-4F51-BD4F-C79B19BF3FCC}"/>
                   </c:ext>
@@ -4826,7 +4922,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$U$2</c15:sqref>
@@ -4855,7 +4951,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$G$3:$G$52</c15:sqref>
@@ -5020,7 +5116,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>assumptions!$U$3:$U$52</c15:sqref>
@@ -5184,7 +5280,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-EA25-4F51-BD4F-C79B19BF3FCC}"/>
                   </c:ext>
@@ -7486,7 +7582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F6BD1D-5016-40E1-B0B7-0D0C4F0664E0}">
   <dimension ref="A1:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -13587,8 +13683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16728A04-9240-4A2C-B442-0C4B0C9363A3}">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE51"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13597,6 +13693,96 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -18349,6 +18535,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18358,7 +18545,7 @@
   <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE51"/>
+      <selection activeCell="B1" sqref="B1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18366,6 +18553,96 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -23128,7 +23405,7 @@
   <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE51"/>
+      <selection activeCell="B1" sqref="B1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23136,6 +23413,96 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -27898,7 +28265,7 @@
   <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE51"/>
+      <selection activeCell="B1" sqref="B1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27906,6 +28273,96 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -32668,7 +33125,7 @@
   <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE51"/>
+      <selection activeCell="B1" sqref="B1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32676,6 +33133,96 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -37438,7 +37985,7 @@
   <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE51"/>
+      <selection activeCell="B1" sqref="B1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37446,6 +37993,96 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -42208,7 +42845,7 @@
   <dimension ref="A1:AE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE51"/>
+      <selection activeCell="B1" sqref="B1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42216,6 +42853,96 @@
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -46977,8 +47704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB22AD7-BDA6-4E47-8803-33CB0B809BBD}">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46987,6 +47714,96 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
